--- a/Resources/LivingWagesWorkingPoor.xlsx
+++ b/Resources/LivingWagesWorkingPoor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denise\Desktop\LivingWagesWorkingPoor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denise\Desktop\LivingWagesRepo\LivingWages-WorkingPoor\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AF1B666-304D-4355-9EC4-8DEE8AA491DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F5F0A0-F398-457D-952E-2E62CC6D71C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="12465" windowHeight="6915" xr2:uid="{127C7B8F-5309-466E-B311-582D75BF90E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{127C7B8F-5309-466E-B311-582D75BF90E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -633,13 +633,13 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" customWidth="1"/>
     <col min="3" max="3" width="78.140625" customWidth="1"/>
   </cols>

--- a/Resources/LivingWagesWorkingPoor.xlsx
+++ b/Resources/LivingWagesWorkingPoor.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denise\Desktop\LivingWagesRepo\LivingWages-WorkingPoor\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pictures\Head Shots\LivingWagesWorkingPoor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F5F0A0-F398-457D-952E-2E62CC6D71C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901AE953-D442-4FB0-9112-0C0CD7193AE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{127C7B8F-5309-466E-B311-582D75BF90E4}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15945" windowHeight="10155" activeTab="1" xr2:uid="{127C7B8F-5309-466E-B311-582D75BF90E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data sites" sheetId="1" r:id="rId1"/>
+    <sheet name="Articles_Reports" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="183">
   <si>
     <t>https://www.kaggle.com/lislejoem/us-minimum-wage-by-state-from-1968-to-2017</t>
   </si>
@@ -141,19 +142,10 @@
     <t>https://www.bls.gov/opub/reports/working-poor/2018/home.htm#:~:text=The%20working%20poor%20are%20people,below%20the%20official%20poverty%20level.&amp;text=The%20working%2Dpoor%20rate%20of,or%20more%20was%204.5%20percent.</t>
   </si>
   <si>
-    <t>US Bureau of Labor &amp; Statistics -2018 Working-poor report</t>
-  </si>
-  <si>
     <t>https://www.theguardian.com/society/2015/oct/21/number-of-londons-working-poor-surges-70-in-10-years</t>
   </si>
   <si>
-    <t>article: Number of London's 'working poor' surges 70% in 10 years</t>
-  </si>
-  <si>
     <t>https://www.fastcompany.com/3061216/america-has-millions-of-working-poor-heres-where-they-are</t>
-  </si>
-  <si>
-    <t>article:  06-27-16 America Has Millions Of Working Poor  Here’s Where They Are Nearly half of U.S. workers earn less than $15 an hour.</t>
   </si>
   <si>
     <t>U C Berkley Labor Center</t>
@@ -256,13 +248,386 @@
   </si>
   <si>
     <t>https://www.epi.org/data/#/citations?subject=wage-avg&amp;g=*&amp;r=*&amp;el=*</t>
+  </si>
+  <si>
+    <t>https://www.fns.usda.gov/pd/wic-program</t>
+  </si>
+  <si>
+    <t>USDA Food &amp; Nutritional Service -WIC</t>
+  </si>
+  <si>
+    <t>https://www.fns.usda.gov/pd/child-nutrition-tables</t>
+  </si>
+  <si>
+    <t>USDA Food &amp; Nutritional Service -Child Nutrition Tables</t>
+  </si>
+  <si>
+    <t>https://www.fns.usda.gov/pd/supplemental-nutrition-assistance-program-snap</t>
+  </si>
+  <si>
+    <t>USDA Food &amp; Nutritional Service -Supplemental Nutrition Assistance Program (SNAP)</t>
+  </si>
+  <si>
+    <t>USDA</t>
+  </si>
+  <si>
+    <t>https://www.rentcafe.com/</t>
+  </si>
+  <si>
+    <t>Finding some rental prices</t>
+  </si>
+  <si>
+    <t>EXPENDITURES</t>
+  </si>
+  <si>
+    <t>Employee Benefit Research Insistute</t>
+  </si>
+  <si>
+    <t>https://www.ebri.org/</t>
+  </si>
+  <si>
+    <t>https://www.cms.gov/Research-Statistics-Data-and-Systems/Statistics-Trends-and-Reports/NationalHealthExpendData</t>
+  </si>
+  <si>
+    <t>https://www.cms.gov/Research-Statistics-Data-and-Systems/Research/ActuarialStudies</t>
+  </si>
+  <si>
+    <t>ActuarialStudies-CMS.GOV Research-Data-Reports etc</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/nchs/fastats/health-expenditures.htm</t>
+  </si>
+  <si>
+    <t>CDC-National Center for Health Statistics</t>
+  </si>
+  <si>
+    <t>https://www.healthaffairs.org/doi/10.1377/hlthaff.2020.00094</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Article Name</t>
+  </si>
+  <si>
+    <t>Article URL</t>
+  </si>
+  <si>
+    <t>HealthAffairs</t>
+  </si>
+  <si>
+    <t>National Health Expenditure Projections, 2019–28: Expected Rebound In Prices Drives Rising Spending Growth</t>
+  </si>
+  <si>
+    <t>State Category Medicaid &amp; CHIP Spending</t>
+  </si>
+  <si>
+    <t>https://www.kff.org/state-category/medicaid-chip/medicaid-spending/</t>
+  </si>
+  <si>
+    <t>HealthData.gov-NationalHealthExpedData</t>
+  </si>
+  <si>
+    <t>https://healthdata.gov/dataset/national-health-expenditure-data</t>
+  </si>
+  <si>
+    <t>US Dept of Treasury</t>
+  </si>
+  <si>
+    <t>https://home.treasury.gov/</t>
+  </si>
+  <si>
+    <t>Medicaid</t>
+  </si>
+  <si>
+    <t>https://www.medicaid.gov/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Expenditure DataCMS.GOV </t>
+  </si>
+  <si>
+    <t>https://www.cms.gov/Research-Statistics-Data-and-Systems/Statistics-Trends-and-Reports/NationalHealthExpendData/NationalHealthAccountsHistorical</t>
+  </si>
+  <si>
+    <t>National Health Expenditure Historical back to 1960</t>
+  </si>
+  <si>
+    <t>NIH</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/guide/data-software/</t>
+  </si>
+  <si>
+    <t>NIH Article: Disparities in the prevalence of comorbidities among US adults by state Medicaid expansion status</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4902718/</t>
+  </si>
+  <si>
+    <t>https://healthdata.gov/api</t>
+  </si>
+  <si>
+    <t>The base URL for the HealthData.gov API is http://www.healthdata.gov/api.</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>CDC Life expectancy map</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/nchs/data-visualization/life-expectancy/</t>
+  </si>
+  <si>
+    <t>https://www.rwjf.org/en/library/interactives/whereyouliveaffectshowlongyoulive.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RWJF </t>
+  </si>
+  <si>
+    <t>https://www.rwjf.org/en/library/features/achieving-health-equity.html</t>
+  </si>
+  <si>
+    <t>https://www.rwjf.org/en/library/research/2019/10/health-equity-what-we-can-learn-from-the-world.html</t>
+  </si>
+  <si>
+    <t>https://www.rwjf.org/en/how-we-work/rel.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPI </t>
+  </si>
+  <si>
+    <t>https://www.epi.org/</t>
+  </si>
+  <si>
+    <t>https://www.epi.org/resources/budget/budget-factsheets/#/104</t>
+  </si>
+  <si>
+    <t>https://www.epi.org/publication/family-budget-calculator-documentation/</t>
+  </si>
+  <si>
+    <t>ProcareSolutions to scrape for cost child care US 2020</t>
+  </si>
+  <si>
+    <t>https://www.procaresoftware.com/child-care-costs-by-state-2020/#AZ</t>
+  </si>
+  <si>
+    <t>https://www.childcareaware.org/state/arizona/</t>
+  </si>
+  <si>
+    <t>AHCCCS</t>
+  </si>
+  <si>
+    <t>https://azahcccs.gov/</t>
+  </si>
+  <si>
+    <t>https://azahcccs.gov/Members/GetCovered/</t>
+  </si>
+  <si>
+    <t>https://azahcccs.gov/Members/AlreadyCovered/PremiumsandCopayments/copayments.html</t>
+  </si>
+  <si>
+    <t>The new HealthData.gov site is built on DKAN. Documentation for DKAN's API can be found here. References:
+Geographic Terms and Concepts - Census Tract. U.S. Census Bureau, Geography. 2018, available from, https://www.census.gov/geo/reference/gtc/gtc_ct.htmlexternal icon.
+Arias E, Escobedo LA, Kennedy J, Fu C, Cisewski J. U.S. small-area life expectancy estimates project: Methodology and results summary. National Center for Health Statistics. Vital Health Stat 2(181). 2018.
+Suggested citation:
+Tejada-Vera B, Bastian B, Arias E, Escobedo LA., Salant B, Life Expectancy Estimates by U.S. Census Tract, 2010-2015. National Center for Health Statistics. 2020.
+Designed by B Tejada-Vera, B Bastian, E Arias, L Escobedo and B Salant: National Center for Health Statistics.</t>
+  </si>
+  <si>
+    <t>Number of London's 'working poor' surges 70% in 10 years</t>
+  </si>
+  <si>
+    <t>Guardian, The</t>
+  </si>
+  <si>
+    <t>America Has Millions Of Working Poor  Here’s Where They Are. Nearly half of U.S. workers earn less than $15 an hour. 06-27-16</t>
+  </si>
+  <si>
+    <t>https://livingwage.mit.edu/</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/cex/</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/cex/tables.htm</t>
+  </si>
+  <si>
+    <t>Consumer Expenditure Survey(CEX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USBureau LaborStatistics (BLS) </t>
+  </si>
+  <si>
+    <t>BLS CEX Tables</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/cex/pumd-getting-started-guide.htm</t>
+  </si>
+  <si>
+    <t>CEX Public-use Microdata Getting Started Guide</t>
+  </si>
+  <si>
+    <t>BLS CEX Databases</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/cex/data.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLS CEX Developer API </t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/developers/</t>
+  </si>
+  <si>
+    <t>US CENSUS.gov</t>
+  </si>
+  <si>
+    <t>Developer API</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/data/developers.html</t>
+  </si>
+  <si>
+    <t>BLS 2018 Working-poor report</t>
+  </si>
+  <si>
+    <t>https://www.ers.usda.gov/developer/</t>
+  </si>
+  <si>
+    <t>Economic Research Service API</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Census Data API. Your API key is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d5fba053e515231d96ae3bf1d0478a1a69d72524</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Please click here to activate your key.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thank you for registering with the Bureau of Labor Statistics Public Data API. Your API key is: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b46f5cfc01f34fd385e04a4d7764d58d</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.acf.hhs.gov/ofa/programs/tanf/data-reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACF/HHS.GOV/TANF </t>
+  </si>
+  <si>
+    <t>https://www.acf.hhs.gov/ofa/programs/temporary-assistance-needy-families-tanf</t>
+  </si>
+  <si>
+    <t>2nd URL</t>
+  </si>
+  <si>
+    <t>https://www.acf.hhs.gov/ofa/resource-library?f%5B0%5D=program%3A270&amp;f%5B1%5D=program_topic%3A636&amp;keyword=Expenditure&amp;sort_by=combined_publication_date</t>
+  </si>
+  <si>
+    <t>On this page click on financial data  - TANF data</t>
+  </si>
+  <si>
+    <t>TANF data!</t>
+  </si>
+  <si>
+    <t>2019 TANF maintenance of effort (MOE)</t>
+  </si>
+  <si>
+    <t>https://www.acf.hhs.gov/ofa/data/tanf-and-moe-spending-and-transfers-activity-fy-2019-contains-national-state-pie-charts</t>
+  </si>
+  <si>
+    <t>https://www.acf.hhs.gov/ofa/data/tanf-financial-data-fy-2019</t>
+  </si>
+  <si>
+    <t>2019 financial data</t>
+  </si>
+  <si>
+    <t>https://www.acf.hhs.gov/media/10381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 financial data </t>
+  </si>
+  <si>
+    <t>https://www.acf.hhs.gov/media/10552</t>
+  </si>
+  <si>
+    <t>2017 financial data</t>
+  </si>
+  <si>
+    <t>https://www.acf.hhs.gov/media/10710</t>
+  </si>
+  <si>
+    <t>Where I got the  2-25-20tanfspreadsheet</t>
+  </si>
+  <si>
+    <t>https://www.cbpp.org/research/family-income-support/states-should-invest-more-of-their-tanf-dollars-in-basic-assistance</t>
+  </si>
+  <si>
+    <t>States Should Invest More of Their TANF Dollars in Basic Assistance for Families</t>
+  </si>
+  <si>
+    <t>UPDATED
+FEBRUARY 25, 2020
+BYASHLEY BURNSIDE LIZ SCHOTT</t>
+  </si>
+  <si>
+    <t>https://mkorostoff.github.io/incarceration-in-real-numbers/</t>
+  </si>
+  <si>
+    <t>https://mkorostoff.github.io/1-pixel-wealth/?fbclid=IwAR0eNbTYHw7pCiKT5pkIK6nWOaslWVGCyzrXaCuBe26w15gdaGOYAOW4uuQ</t>
+  </si>
+  <si>
+    <t>https://www.acf.hhs.gov/opre/project/state-tanf-policies-welfare-rules-database-expansion-2013-2021</t>
+  </si>
+  <si>
+    <t>https://www.acf.hhs.gov/opre/project/racial-and-ethnic-disparities-human-services-analysis-execution-project-2018-2021</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Disparities in Human Services Analysis Execution Project, 2018 - 2021</t>
+  </si>
+  <si>
+    <t>https://www.acf.hhs.gov/opre/topic/self-sufficiency-welfare-employment</t>
+  </si>
+  <si>
+    <t>Self Sufficiency Welfare Employment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +646,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -308,12 +681,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -630,572 +1027,1274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF7DC9C-1747-46E1-B809-4A60BDC19172}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" customWidth="1"/>
-    <col min="3" max="3" width="78.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="86.42578125" customWidth="1"/>
+    <col min="4" max="4" width="78.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="51" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+      <c r="C88" s="1"/>
+      <c r="D88" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A89" s="5"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="D101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="6"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+      <c r="B110" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="6"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="6"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D122" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1214,31 +2313,183 @@
     <hyperlink ref="B13" r:id="rId11" xr:uid="{69A616EA-49EA-4BD1-BBB6-F726A1D299F0}"/>
     <hyperlink ref="B14" r:id="rId12" xr:uid="{EA91CD7C-895E-4EA5-BB74-CF22A4C9475A}"/>
     <hyperlink ref="B8" r:id="rId13" xr:uid="{E32353A8-67E0-447F-9A1D-0F12302E5189}"/>
-    <hyperlink ref="B41" r:id="rId14" xr:uid="{5AB4D892-5EF1-479B-B365-EC08E199641D}"/>
-    <hyperlink ref="B15" r:id="rId15" xr:uid="{A28E33D0-9C55-4106-9903-47BA81693457}"/>
-    <hyperlink ref="B16" r:id="rId16" xr:uid="{00DBA1CF-FE99-4FE7-9F08-39BDDD55EDA9}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{4741BD18-B29D-4CF6-81D4-69FB9C9DF973}"/>
-    <hyperlink ref="B18" r:id="rId18" location=":~:text=The%20working%20poor%20are%20people,below%20the%20official%20poverty%20level.&amp;text=The%20working%2Dpoor%20rate%20of,or%20more%20was%204.5%20percent." xr:uid="{767046C4-A38F-427F-B1AD-EAEA5B548983}"/>
-    <hyperlink ref="B46" r:id="rId19" xr:uid="{DDB71617-81FD-43AD-894E-8B0FC5255203}"/>
-    <hyperlink ref="B47" r:id="rId20" xr:uid="{A270D7D2-B69F-4E62-A827-F83DA1F32FD6}"/>
-    <hyperlink ref="B19" r:id="rId21" location=":~:text=The%20High%20Public%20Cost%20of,Public%20Support%20for%20Working%20Families." xr:uid="{F5B7D890-E491-44C9-A55F-BE6C9A80624B}"/>
-    <hyperlink ref="C47" r:id="rId22" xr:uid="{B20E1256-B6B4-440D-8EE3-545C420E88F6}"/>
-    <hyperlink ref="B20" r:id="rId23" xr:uid="{19FAA49A-13EE-4270-897B-C8E897B8578D}"/>
-    <hyperlink ref="B21" r:id="rId24" xr:uid="{03660B99-5308-4731-9EE5-A2161E625902}"/>
-    <hyperlink ref="C20" r:id="rId25" xr:uid="{B6C7B38C-1945-43FF-99BD-BF9A3B2BD412}"/>
-    <hyperlink ref="B22" r:id="rId26" xr:uid="{D275EF16-A4AD-43A7-B369-002E162A4627}"/>
-    <hyperlink ref="B24" r:id="rId27" xr:uid="{13747122-538D-4989-AE39-180D308425FD}"/>
-    <hyperlink ref="B25" r:id="rId28" xr:uid="{E3F589C8-147F-4C08-99FA-239D211A3078}"/>
-    <hyperlink ref="B26" r:id="rId29" xr:uid="{27CF759C-2D17-497A-AC05-3336C2E39C7D}"/>
-    <hyperlink ref="B40" r:id="rId30" xr:uid="{AE1646C4-4F86-437B-9DCE-5CA65F92A3DB}"/>
-    <hyperlink ref="B38" r:id="rId31" xr:uid="{73ABA136-73DC-4A5C-82FF-878E0146A7D4}"/>
-    <hyperlink ref="B27" r:id="rId32" xr:uid="{92490DDA-FB2C-4848-B498-6C5241C7715A}"/>
-    <hyperlink ref="B29" r:id="rId33" xr:uid="{525F27B7-72D0-46AC-9B37-AEB6EA818F6D}"/>
-    <hyperlink ref="B44" r:id="rId34" xr:uid="{62C16ED4-AAEB-4883-9BCC-FD9A0AC17127}"/>
-    <hyperlink ref="B49" r:id="rId35" xr:uid="{4ED9AA13-69F0-425B-8D20-41034CA78301}"/>
-    <hyperlink ref="B30" r:id="rId36" xr:uid="{5DF93D5A-25F9-418E-B2D6-6A84C092B748}"/>
-    <hyperlink ref="B32" r:id="rId37" location="?subject=wage-avg&amp;r=*" xr:uid="{CDB74967-7D4A-4203-9A05-346F3AE5FD1A}"/>
-    <hyperlink ref="B33" r:id="rId38" location="/citations?subject=wage-avg&amp;g=*&amp;r=*&amp;el=*" xr:uid="{C734DB91-6BCD-4F89-A113-ABBD4F2E3F60}"/>
+    <hyperlink ref="B67" r:id="rId14" xr:uid="{5AB4D892-5EF1-479B-B365-EC08E199641D}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{A28E33D0-9C55-4106-9903-47BA81693457}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{00DBA1CF-FE99-4FE7-9F08-39BDDD55EDA9}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{4741BD18-B29D-4CF6-81D4-69FB9C9DF973}"/>
+    <hyperlink ref="B88" r:id="rId18" location=":~:text=The%20working%20poor%20are%20people,below%20the%20official%20poverty%20level.&amp;text=The%20working%2Dpoor%20rate%20of,or%20more%20was%204.5%20percent." xr:uid="{767046C4-A38F-427F-B1AD-EAEA5B548983}"/>
+    <hyperlink ref="B48" r:id="rId19" location=":~:text=The%20High%20Public%20Cost%20of,Public%20Support%20for%20Working%20Families." xr:uid="{F5B7D890-E491-44C9-A55F-BE6C9A80624B}"/>
+    <hyperlink ref="B49" r:id="rId20" xr:uid="{19FAA49A-13EE-4270-897B-C8E897B8578D}"/>
+    <hyperlink ref="B50" r:id="rId21" xr:uid="{03660B99-5308-4731-9EE5-A2161E625902}"/>
+    <hyperlink ref="D49" r:id="rId22" xr:uid="{B6C7B38C-1945-43FF-99BD-BF9A3B2BD412}"/>
+    <hyperlink ref="B51" r:id="rId23" xr:uid="{D275EF16-A4AD-43A7-B369-002E162A4627}"/>
+    <hyperlink ref="B53" r:id="rId24" xr:uid="{13747122-538D-4989-AE39-180D308425FD}"/>
+    <hyperlink ref="B54" r:id="rId25" xr:uid="{E3F589C8-147F-4C08-99FA-239D211A3078}"/>
+    <hyperlink ref="B55" r:id="rId26" xr:uid="{27CF759C-2D17-497A-AC05-3336C2E39C7D}"/>
+    <hyperlink ref="B66" r:id="rId27" xr:uid="{AE1646C4-4F86-437B-9DCE-5CA65F92A3DB}"/>
+    <hyperlink ref="B64" r:id="rId28" xr:uid="{73ABA136-73DC-4A5C-82FF-878E0146A7D4}"/>
+    <hyperlink ref="B56" r:id="rId29" xr:uid="{92490DDA-FB2C-4848-B498-6C5241C7715A}"/>
+    <hyperlink ref="B58" r:id="rId30" xr:uid="{525F27B7-72D0-46AC-9B37-AEB6EA818F6D}"/>
+    <hyperlink ref="B69" r:id="rId31" xr:uid="{62C16ED4-AAEB-4883-9BCC-FD9A0AC17127}"/>
+    <hyperlink ref="B71" r:id="rId32" xr:uid="{4ED9AA13-69F0-425B-8D20-41034CA78301}"/>
+    <hyperlink ref="B59" r:id="rId33" xr:uid="{5DF93D5A-25F9-418E-B2D6-6A84C092B748}"/>
+    <hyperlink ref="B61" r:id="rId34" location="?subject=wage-avg&amp;r=*" xr:uid="{CDB74967-7D4A-4203-9A05-346F3AE5FD1A}"/>
+    <hyperlink ref="B62" r:id="rId35" location="/citations?subject=wage-avg&amp;g=*&amp;r=*&amp;el=*" xr:uid="{C734DB91-6BCD-4F89-A113-ABBD4F2E3F60}"/>
+    <hyperlink ref="B76" r:id="rId36" xr:uid="{17CBAA81-1F1A-447F-8389-ED19187F63CB}"/>
+    <hyperlink ref="B77" r:id="rId37" xr:uid="{45F3BB19-D6B1-4FE8-BA23-D060C263DAAD}"/>
+    <hyperlink ref="B75" r:id="rId38" xr:uid="{73B11ABF-075F-45F9-91D0-287D3D6C8261}"/>
+    <hyperlink ref="B91" r:id="rId39" xr:uid="{E4A5F5D4-ECE5-40EA-9785-F972030D27C9}"/>
+    <hyperlink ref="B98" r:id="rId40" xr:uid="{E4A19977-1CE8-4974-8DD2-4AF870D0B034}"/>
+    <hyperlink ref="B99" r:id="rId41" xr:uid="{0B1392B5-47D1-4EA1-878C-931F444CA417}"/>
+    <hyperlink ref="B100" r:id="rId42" xr:uid="{003DB84E-3CF1-4DE9-9C80-622383662EDB}"/>
+    <hyperlink ref="B102" r:id="rId43" xr:uid="{486FB0E5-D8DC-40A9-8F3E-36F79A73CAD0}"/>
+    <hyperlink ref="B104" r:id="rId44" xr:uid="{EF7332BE-DE37-4D3F-B584-ECDA00A0AAD5}"/>
+    <hyperlink ref="B103" r:id="rId45" xr:uid="{A32DABE9-4C26-4B89-9499-BDB991BA00E3}"/>
+    <hyperlink ref="B121" r:id="rId46" xr:uid="{9B5EC5B9-1F1F-4D11-85D6-660417DAAB89}"/>
+    <hyperlink ref="B105" r:id="rId47" xr:uid="{FC314B37-F087-437D-A80B-B3565D4CD3E5}"/>
+    <hyperlink ref="B107" r:id="rId48" xr:uid="{D3519DE8-D7E3-468E-BF76-D9026B1CBB76}"/>
+    <hyperlink ref="B130" r:id="rId49" xr:uid="{E34F1925-B56E-4E13-BE62-21DC6D3FAEFA}"/>
+    <hyperlink ref="B83" r:id="rId50" xr:uid="{4782AEDA-495E-40F4-AF98-834BB1D20F8B}"/>
+    <hyperlink ref="B85" r:id="rId51" xr:uid="{057BA41B-936C-4CE9-95C3-1696025E4179}"/>
+    <hyperlink ref="B84" r:id="rId52" xr:uid="{F4304126-1A12-4C32-8C73-8BED0EB10879}"/>
+    <hyperlink ref="B86" r:id="rId53" xr:uid="{0D24B2CD-0170-4F23-9FD4-5FB8C750D1D8}"/>
+    <hyperlink ref="B87" r:id="rId54" xr:uid="{CF7B0DE5-664F-44F1-96C4-3B54D8AFFCD9}"/>
+    <hyperlink ref="B17" r:id="rId55" xr:uid="{4820F1BA-F28D-4465-8D36-EE870E7AE82E}"/>
+    <hyperlink ref="B44" r:id="rId56" xr:uid="{D7BE42C6-3419-4A37-AEF2-CB5232F26137}"/>
+    <hyperlink ref="B78" r:id="rId57" xr:uid="{BF3AA3D6-08FE-4D16-86C7-5D94F7092F29}"/>
+    <hyperlink ref="B23" r:id="rId58" xr:uid="{BE3329F7-2D5E-4F3F-9E16-49534679996F}"/>
+    <hyperlink ref="B108" r:id="rId59" xr:uid="{A9AE9B74-EB15-42CE-8AE2-599AE5016C85}"/>
+    <hyperlink ref="B95" r:id="rId60" xr:uid="{091FE103-4266-4B11-974A-36579DE8DDB3}"/>
+    <hyperlink ref="B109" r:id="rId61" xr:uid="{5BD105D8-CAF1-4BD0-BF57-D80CBB64D12E}"/>
+    <hyperlink ref="C111" r:id="rId62" xr:uid="{6F4299A7-80B9-4ED3-98C7-AEC1ADFE83BE}"/>
+    <hyperlink ref="B111" r:id="rId63" xr:uid="{85B1784C-E087-4916-AE96-42EE6EDDB717}"/>
+    <hyperlink ref="B112" r:id="rId64" xr:uid="{C3CCD7EA-FDDC-4BD4-88E2-243FDF7CE177}"/>
+    <hyperlink ref="B113" r:id="rId65" xr:uid="{064E6143-8FC7-4D2C-8CB8-DABB85ADC872}"/>
+    <hyperlink ref="B114" r:id="rId66" xr:uid="{29EEE2FE-9322-4E4F-9E46-A4EAA0478904}"/>
+    <hyperlink ref="B117" r:id="rId67" xr:uid="{E6E6EF78-6904-4671-B812-D56031CFFC1C}"/>
+    <hyperlink ref="B110" r:id="rId68" xr:uid="{B01660AB-0358-43F9-BF58-2DF284503454}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId69"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBF9438-4264-4B7B-8240-2A24E758A490}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{AA299AA8-CE7D-4FFF-A519-1B299003C117}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{DDB71617-81FD-43AD-894E-8B0FC5255203}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{3BACB3EC-402D-4AC2-AA94-1D67AC588C99}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{7E680D2A-57A3-4B2A-93EC-7B1962033EF2}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{45DEBEB6-7941-4934-81B6-DF8E702385A0}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{5E68D026-E93E-4BE0-AB56-EE7D8912122F}"/>
+    <hyperlink ref="C17" r:id="rId7" xr:uid="{A67FBAF7-2517-4188-9910-22135A0906A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/LivingWagesWorkingPoor.xlsx
+++ b/Resources/LivingWagesWorkingPoor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pictures\Head Shots\LivingWagesWorkingPoor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denise\Desktop\LivingWagesRepo\LivingWages-WorkingPoor\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901AE953-D442-4FB0-9112-0C0CD7193AE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A66A9B0-3EE6-49D8-90A3-9EDF1CCB42F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15945" windowHeight="10155" activeTab="1" xr2:uid="{127C7B8F-5309-466E-B311-582D75BF90E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{127C7B8F-5309-466E-B311-582D75BF90E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data sites" sheetId="1" r:id="rId1"/>
@@ -2379,7 +2379,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/LivingWagesWorkingPoor.xlsx
+++ b/Resources/LivingWagesWorkingPoor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denise\Desktop\LivingWagesRepo\LivingWages-WorkingPoor\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A66A9B0-3EE6-49D8-90A3-9EDF1CCB42F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5B0907-E7BC-4024-994C-79CD2819B01B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{127C7B8F-5309-466E-B311-582D75BF90E4}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="187">
   <si>
     <t>https://www.kaggle.com/lislejoem/us-minimum-wage-by-state-from-1968-to-2017</t>
   </si>
@@ -621,6 +621,20 @@
   </si>
   <si>
     <t>Self Sufficiency Welfare Employment</t>
+  </si>
+  <si>
+    <t>https://www.acf.hhs.gov/sites/default/files/documents/opre/understanding_two_categories_of_tanf_spending.pdf</t>
+  </si>
+  <si>
+    <t>Understanding Two Categories of TANF Spending</t>
+  </si>
+  <si>
+    <t>https://fas.org/sgp/crs/misc/RL32760.pdf</t>
+  </si>
+  <si>
+    <t>The Temporary Assistance for
+Needy Families (TANF) Block Grant:
+Responses to Frequently Asked Questions</t>
   </si>
 </sst>
 </file>
@@ -2376,10 +2390,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBF9438-4264-4B7B-8240-2A24E758A490}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B28" sqref="B26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,6 +2495,22 @@
         <v>181</v>
       </c>
     </row>
+    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{AA299AA8-CE7D-4FFF-A519-1B299003C117}"/>
@@ -2490,6 +2520,8 @@
     <hyperlink ref="C13" r:id="rId5" xr:uid="{45DEBEB6-7941-4934-81B6-DF8E702385A0}"/>
     <hyperlink ref="C15" r:id="rId6" xr:uid="{5E68D026-E93E-4BE0-AB56-EE7D8912122F}"/>
     <hyperlink ref="C17" r:id="rId7" xr:uid="{A67FBAF7-2517-4188-9910-22135A0906A7}"/>
+    <hyperlink ref="C19" r:id="rId8" xr:uid="{41B7C28C-C966-4D0F-923C-A46EEA5A82BA}"/>
+    <hyperlink ref="C22" r:id="rId9" xr:uid="{B896D2B8-76E3-4EF6-A84F-02FC7603E883}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/LivingWagesWorkingPoor.xlsx
+++ b/Resources/LivingWagesWorkingPoor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denise\Desktop\LivingWagesRepo\LivingWages-WorkingPoor\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5B0907-E7BC-4024-994C-79CD2819B01B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F5D1D1-5D82-43E8-B1A7-735C5B9DAAFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{127C7B8F-5309-466E-B311-582D75BF90E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{127C7B8F-5309-466E-B311-582D75BF90E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data sites" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="211">
   <si>
     <t>https://www.kaggle.com/lislejoem/us-minimum-wage-by-state-from-1968-to-2017</t>
   </si>
@@ -253,19 +253,10 @@
     <t>https://www.fns.usda.gov/pd/wic-program</t>
   </si>
   <si>
-    <t>USDA Food &amp; Nutritional Service -WIC</t>
-  </si>
-  <si>
     <t>https://www.fns.usda.gov/pd/child-nutrition-tables</t>
   </si>
   <si>
-    <t>USDA Food &amp; Nutritional Service -Child Nutrition Tables</t>
-  </si>
-  <si>
     <t>https://www.fns.usda.gov/pd/supplemental-nutrition-assistance-program-snap</t>
-  </si>
-  <si>
-    <t>USDA Food &amp; Nutritional Service -Supplemental Nutrition Assistance Program (SNAP)</t>
   </si>
   <si>
     <t>USDA</t>
@@ -459,16 +450,10 @@
     <t xml:space="preserve">USBureau LaborStatistics (BLS) </t>
   </si>
   <si>
-    <t>BLS CEX Tables</t>
-  </si>
-  <si>
     <t>https://www.bls.gov/cex/pumd-getting-started-guide.htm</t>
   </si>
   <si>
     <t>CEX Public-use Microdata Getting Started Guide</t>
-  </si>
-  <si>
-    <t>BLS CEX Databases</t>
   </si>
   <si>
     <t>https://www.bls.gov/cex/data.htm</t>
@@ -635,6 +620,198 @@
     <t>The Temporary Assistance for
 Needy Families (TANF) Block Grant:
 Responses to Frequently Asked Questions</t>
+  </si>
+  <si>
+    <t>BLS Consumer Expenditure (CEX) Tables</t>
+  </si>
+  <si>
+    <t>BLS Consumer Expenditure (CEX)  Databases</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/cex/tables.htm#multiyear</t>
+  </si>
+  <si>
+    <t>(CEX) MultiYrTables</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/cex/csxresearchtables.htm</t>
+  </si>
+  <si>
+    <t>(CEX) Research Tables</t>
+  </si>
+  <si>
+    <t>https://www.brookings.edu/research/the-plight-of-the-working-poor/</t>
+  </si>
+  <si>
+    <t>Plight of the Working Poor article</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/story/low-income-families-spend-40-of-their-money-on-luxuries-2017-06-28</t>
+  </si>
+  <si>
+    <t>Low Income Earners Spend Less  on  Luxury Goods</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/opub/reports/working-poor/2018/home.htm</t>
+  </si>
+  <si>
+    <t>Profile of  the Working Poor 2018 BLS report</t>
+  </si>
+  <si>
+    <t>https://news.wbfo.org/post/working-poor-we-had-budget-down-penny</t>
+  </si>
+  <si>
+    <t>The Working Poor</t>
+  </si>
+  <si>
+    <t>https://www.brookings.edu/blog/future-development/2020/12/14/the-decline-and-recovery-of-consumer-spending-in-the-us/</t>
+  </si>
+  <si>
+    <t>Decline and recovery of consumer spending in the US</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2020/09/29/americans-have-changed-their-spending-habits-during-the-pandemic-heres-how.html</t>
+  </si>
+  <si>
+    <t>64% of Americans changed their spending habits during the pandemic—here’s how</t>
+  </si>
+  <si>
+    <t>The Rich Cut Their Spending. That Has Hurt All the Workers Who Count on It.</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2020/06/17/upshot/coronavirus-spending-rich-poor.html</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/cex/csxstnderror.htm</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/cex/csxcombined.htm</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/cex/csxstnd.htm</t>
+  </si>
+  <si>
+    <r>
+      <t>USDA Food &amp; Nutritional Service -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WIC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>USDA Food &amp; Nutritional Service -Supplemental Nutrition Assistance Program (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SNAP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USDA Food &amp; Nutritional Service -Child Nutrition Tables (School </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>breakfasts &amp; lunches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Summer food programs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*(CEX) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Complete Expenditure  Tables </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2012-2019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*(CEX) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Complete Expenditure Tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2000-1996</t>
+    </r>
+  </si>
+  <si>
+    <t>(CEX) Standard Error Tables 2000-____</t>
   </si>
 </sst>
 </file>
@@ -1041,18 +1218,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF7DC9C-1747-46E1-B809-4A60BDC19172}">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A110" sqref="A110"/>
+      <selection pane="bottomRight" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" style="3" customWidth="1"/>
     <col min="2" max="3" width="86.42578125" customWidth="1"/>
     <col min="4" max="4" width="78.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="51" customWidth="1"/>
@@ -1067,7 +1244,7 @@
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>29</v>
@@ -1237,21 +1414,21 @@
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,10 +1477,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="3" t="s">
@@ -1313,27 +1490,27 @@
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C24" s="3"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1341,17 +1518,17 @@
     </row>
     <row r="27" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1361,10 +1538,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
@@ -1374,20 +1551,20 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C30" s="3"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
@@ -1397,10 +1574,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="C32" s="3"/>
       <c r="E32" s="3"/>
@@ -1412,30 +1589,30 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C34" s="3"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C35" s="3"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
@@ -1450,47 +1627,47 @@
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C38" s="3"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C39" s="3"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C40" s="3"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C41" s="3"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
@@ -1774,18 +1951,18 @@
     </row>
     <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="3" t="s">
@@ -1794,7 +1971,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>73</v>
@@ -1806,10 +1983,10 @@
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="3" t="s">
@@ -1818,10 +1995,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C78" s="1"/>
     </row>
@@ -1840,15 +2017,15 @@
     </row>
     <row r="82" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="3" t="s">
@@ -1857,353 +2034,343 @@
     </row>
     <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>146</v>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="3" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>151</v>
+      <c r="A88" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="C88" s="1"/>
-      <c r="D88" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="B89" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D90" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A90" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>81</v>
+      <c r="A91" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D92" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A92" s="10"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D93" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="A93" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C95" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>83</v>
+      <c r="A96" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>104</v>
+        <v>198</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="C99" s="1"/>
-      <c r="D99" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>87</v>
+    </row>
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D101" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>88</v>
-      </c>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>99</v>
-      </c>
+    </row>
+    <row r="103" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A103" s="5"/>
+      <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C104" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D104" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
-        <v>102</v>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D106" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C107" s="1"/>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D107" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C108" s="1"/>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="D108" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>162</v>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
-      <c r="B110" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C112" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C113" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C114" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1" t="s">
+      <c r="A116" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C117" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="6"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1" t="s">
+      <c r="A118" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1" t="s">
+      <c r="A119" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C120" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A120" s="6"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
       <c r="D120" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>100</v>
+      <c r="A121" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="3" t="s">
@@ -2211,104 +2378,243 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" s="1"/>
       <c r="D122" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="6"/>
+      <c r="B124" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="6"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="6"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="6"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="6"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D136" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B137" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="C137" s="3"/>
+      <c r="D137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B138" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+      <c r="C138" s="3"/>
+      <c r="D138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B139" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
+      <c r="C139" s="3"/>
+      <c r="D139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B140" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="C140" s="3"/>
+      <c r="D140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B141" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+      <c r="C141" s="3"/>
+      <c r="D141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B142" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D129" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D131" s="3" t="s">
+      <c r="C142" s="3"/>
+      <c r="D142" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D143" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2331,7 +2637,7 @@
     <hyperlink ref="B18" r:id="rId15" xr:uid="{A28E33D0-9C55-4106-9903-47BA81693457}"/>
     <hyperlink ref="B19" r:id="rId16" xr:uid="{00DBA1CF-FE99-4FE7-9F08-39BDDD55EDA9}"/>
     <hyperlink ref="B20" r:id="rId17" xr:uid="{4741BD18-B29D-4CF6-81D4-69FB9C9DF973}"/>
-    <hyperlink ref="B88" r:id="rId18" location=":~:text=The%20working%20poor%20are%20people,below%20the%20official%20poverty%20level.&amp;text=The%20working%2Dpoor%20rate%20of,or%20more%20was%204.5%20percent." xr:uid="{767046C4-A38F-427F-B1AD-EAEA5B548983}"/>
+    <hyperlink ref="B101" r:id="rId18" location=":~:text=The%20working%20poor%20are%20people,below%20the%20official%20poverty%20level.&amp;text=The%20working%2Dpoor%20rate%20of,or%20more%20was%204.5%20percent." xr:uid="{767046C4-A38F-427F-B1AD-EAEA5B548983}"/>
     <hyperlink ref="B48" r:id="rId19" location=":~:text=The%20High%20Public%20Cost%20of,Public%20Support%20for%20Working%20Families." xr:uid="{F5B7D890-E491-44C9-A55F-BE6C9A80624B}"/>
     <hyperlink ref="B49" r:id="rId20" xr:uid="{19FAA49A-13EE-4270-897B-C8E897B8578D}"/>
     <hyperlink ref="B50" r:id="rId21" xr:uid="{03660B99-5308-4731-9EE5-A2161E625902}"/>
@@ -2352,39 +2658,51 @@
     <hyperlink ref="B76" r:id="rId36" xr:uid="{17CBAA81-1F1A-447F-8389-ED19187F63CB}"/>
     <hyperlink ref="B77" r:id="rId37" xr:uid="{45F3BB19-D6B1-4FE8-BA23-D060C263DAAD}"/>
     <hyperlink ref="B75" r:id="rId38" xr:uid="{73B11ABF-075F-45F9-91D0-287D3D6C8261}"/>
-    <hyperlink ref="B91" r:id="rId39" xr:uid="{E4A5F5D4-ECE5-40EA-9785-F972030D27C9}"/>
-    <hyperlink ref="B98" r:id="rId40" xr:uid="{E4A19977-1CE8-4974-8DD2-4AF870D0B034}"/>
-    <hyperlink ref="B99" r:id="rId41" xr:uid="{0B1392B5-47D1-4EA1-878C-931F444CA417}"/>
-    <hyperlink ref="B100" r:id="rId42" xr:uid="{003DB84E-3CF1-4DE9-9C80-622383662EDB}"/>
-    <hyperlink ref="B102" r:id="rId43" xr:uid="{486FB0E5-D8DC-40A9-8F3E-36F79A73CAD0}"/>
-    <hyperlink ref="B104" r:id="rId44" xr:uid="{EF7332BE-DE37-4D3F-B584-ECDA00A0AAD5}"/>
-    <hyperlink ref="B103" r:id="rId45" xr:uid="{A32DABE9-4C26-4B89-9499-BDB991BA00E3}"/>
-    <hyperlink ref="B121" r:id="rId46" xr:uid="{9B5EC5B9-1F1F-4D11-85D6-660417DAAB89}"/>
-    <hyperlink ref="B105" r:id="rId47" xr:uid="{FC314B37-F087-437D-A80B-B3565D4CD3E5}"/>
-    <hyperlink ref="B107" r:id="rId48" xr:uid="{D3519DE8-D7E3-468E-BF76-D9026B1CBB76}"/>
-    <hyperlink ref="B130" r:id="rId49" xr:uid="{E34F1925-B56E-4E13-BE62-21DC6D3FAEFA}"/>
+    <hyperlink ref="B105" r:id="rId39" xr:uid="{E4A5F5D4-ECE5-40EA-9785-F972030D27C9}"/>
+    <hyperlink ref="B112" r:id="rId40" xr:uid="{E4A19977-1CE8-4974-8DD2-4AF870D0B034}"/>
+    <hyperlink ref="B113" r:id="rId41" xr:uid="{0B1392B5-47D1-4EA1-878C-931F444CA417}"/>
+    <hyperlink ref="B114" r:id="rId42" xr:uid="{003DB84E-3CF1-4DE9-9C80-622383662EDB}"/>
+    <hyperlink ref="B116" r:id="rId43" xr:uid="{486FB0E5-D8DC-40A9-8F3E-36F79A73CAD0}"/>
+    <hyperlink ref="B118" r:id="rId44" xr:uid="{EF7332BE-DE37-4D3F-B584-ECDA00A0AAD5}"/>
+    <hyperlink ref="B117" r:id="rId45" xr:uid="{A32DABE9-4C26-4B89-9499-BDB991BA00E3}"/>
+    <hyperlink ref="B135" r:id="rId46" xr:uid="{9B5EC5B9-1F1F-4D11-85D6-660417DAAB89}"/>
+    <hyperlink ref="B119" r:id="rId47" xr:uid="{FC314B37-F087-437D-A80B-B3565D4CD3E5}"/>
+    <hyperlink ref="B121" r:id="rId48" xr:uid="{D3519DE8-D7E3-468E-BF76-D9026B1CBB76}"/>
+    <hyperlink ref="B144" r:id="rId49" xr:uid="{E34F1925-B56E-4E13-BE62-21DC6D3FAEFA}"/>
     <hyperlink ref="B83" r:id="rId50" xr:uid="{4782AEDA-495E-40F4-AF98-834BB1D20F8B}"/>
     <hyperlink ref="B85" r:id="rId51" xr:uid="{057BA41B-936C-4CE9-95C3-1696025E4179}"/>
     <hyperlink ref="B84" r:id="rId52" xr:uid="{F4304126-1A12-4C32-8C73-8BED0EB10879}"/>
     <hyperlink ref="B86" r:id="rId53" xr:uid="{0D24B2CD-0170-4F23-9FD4-5FB8C750D1D8}"/>
-    <hyperlink ref="B87" r:id="rId54" xr:uid="{CF7B0DE5-664F-44F1-96C4-3B54D8AFFCD9}"/>
+    <hyperlink ref="B100" r:id="rId54" xr:uid="{CF7B0DE5-664F-44F1-96C4-3B54D8AFFCD9}"/>
     <hyperlink ref="B17" r:id="rId55" xr:uid="{4820F1BA-F28D-4465-8D36-EE870E7AE82E}"/>
     <hyperlink ref="B44" r:id="rId56" xr:uid="{D7BE42C6-3419-4A37-AEF2-CB5232F26137}"/>
     <hyperlink ref="B78" r:id="rId57" xr:uid="{BF3AA3D6-08FE-4D16-86C7-5D94F7092F29}"/>
     <hyperlink ref="B23" r:id="rId58" xr:uid="{BE3329F7-2D5E-4F3F-9E16-49534679996F}"/>
-    <hyperlink ref="B108" r:id="rId59" xr:uid="{A9AE9B74-EB15-42CE-8AE2-599AE5016C85}"/>
-    <hyperlink ref="B95" r:id="rId60" xr:uid="{091FE103-4266-4B11-974A-36579DE8DDB3}"/>
-    <hyperlink ref="B109" r:id="rId61" xr:uid="{5BD105D8-CAF1-4BD0-BF57-D80CBB64D12E}"/>
-    <hyperlink ref="C111" r:id="rId62" xr:uid="{6F4299A7-80B9-4ED3-98C7-AEC1ADFE83BE}"/>
-    <hyperlink ref="B111" r:id="rId63" xr:uid="{85B1784C-E087-4916-AE96-42EE6EDDB717}"/>
-    <hyperlink ref="B112" r:id="rId64" xr:uid="{C3CCD7EA-FDDC-4BD4-88E2-243FDF7CE177}"/>
-    <hyperlink ref="B113" r:id="rId65" xr:uid="{064E6143-8FC7-4D2C-8CB8-DABB85ADC872}"/>
-    <hyperlink ref="B114" r:id="rId66" xr:uid="{29EEE2FE-9322-4E4F-9E46-A4EAA0478904}"/>
-    <hyperlink ref="B117" r:id="rId67" xr:uid="{E6E6EF78-6904-4671-B812-D56031CFFC1C}"/>
-    <hyperlink ref="B110" r:id="rId68" xr:uid="{B01660AB-0358-43F9-BF58-2DF284503454}"/>
+    <hyperlink ref="B122" r:id="rId59" xr:uid="{A9AE9B74-EB15-42CE-8AE2-599AE5016C85}"/>
+    <hyperlink ref="B109" r:id="rId60" xr:uid="{091FE103-4266-4B11-974A-36579DE8DDB3}"/>
+    <hyperlink ref="B123" r:id="rId61" xr:uid="{5BD105D8-CAF1-4BD0-BF57-D80CBB64D12E}"/>
+    <hyperlink ref="C125" r:id="rId62" xr:uid="{6F4299A7-80B9-4ED3-98C7-AEC1ADFE83BE}"/>
+    <hyperlink ref="B125" r:id="rId63" xr:uid="{85B1784C-E087-4916-AE96-42EE6EDDB717}"/>
+    <hyperlink ref="B126" r:id="rId64" xr:uid="{C3CCD7EA-FDDC-4BD4-88E2-243FDF7CE177}"/>
+    <hyperlink ref="B127" r:id="rId65" xr:uid="{064E6143-8FC7-4D2C-8CB8-DABB85ADC872}"/>
+    <hyperlink ref="B128" r:id="rId66" xr:uid="{29EEE2FE-9322-4E4F-9E46-A4EAA0478904}"/>
+    <hyperlink ref="B131" r:id="rId67" xr:uid="{E6E6EF78-6904-4671-B812-D56031CFFC1C}"/>
+    <hyperlink ref="B124" r:id="rId68" xr:uid="{B01660AB-0358-43F9-BF58-2DF284503454}"/>
+    <hyperlink ref="B87" r:id="rId69" location="multiyear" xr:uid="{37AFE8B4-BA7D-46D5-8998-FB8BAE8A2262}"/>
+    <hyperlink ref="B88" r:id="rId70" xr:uid="{111A4FD1-EDB9-4DDC-924A-42E8970ED7A9}"/>
+    <hyperlink ref="B93" r:id="rId71" xr:uid="{54F0A0BD-7C61-4335-A3EA-4A94CB74E9C8}"/>
+    <hyperlink ref="B94" r:id="rId72" xr:uid="{CC0CFE73-A2C4-4CBA-BC97-825577DE743B}"/>
+    <hyperlink ref="B95" r:id="rId73" xr:uid="{F4367841-AEEF-427F-918A-5EF0104771E2}"/>
+    <hyperlink ref="B96" r:id="rId74" xr:uid="{890B974B-50B1-4755-958C-7EB89BF2E53A}"/>
+    <hyperlink ref="B97" r:id="rId75" xr:uid="{B0A99C1F-5927-4E5C-8D17-47730509E60E}"/>
+    <hyperlink ref="B98" r:id="rId76" xr:uid="{26B0C058-81E5-430A-80E7-BD11D03C106F}"/>
+    <hyperlink ref="B99" r:id="rId77" xr:uid="{5A785057-2663-418F-A9B1-5ABF0114E197}"/>
+    <hyperlink ref="B91" r:id="rId78" xr:uid="{41D5C14A-DB2F-4F45-9A7E-8E7DCA6C64DC}"/>
+    <hyperlink ref="B89" r:id="rId79" xr:uid="{83DD2C53-BF32-48BD-9646-484DFB411D33}"/>
+    <hyperlink ref="B90" r:id="rId80" xr:uid="{9DD0784D-61C2-458C-9A05-6D40376F92D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId69"/>
+  <pageSetup orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
 
@@ -2392,7 +2710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBF9438-4264-4B7B-8240-2A24E758A490}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B28" sqref="B26:B28"/>
     </sheetView>
   </sheetViews>
@@ -2407,32 +2725,32 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
@@ -2443,7 +2761,7 @@
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>39</v>
@@ -2454,26 +2772,26 @@
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
@@ -2481,34 +2799,34 @@
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
